--- a/go-mvc/uploads/test.xlsx
+++ b/go-mvc/uploads/test.xlsx
@@ -1,49 +1,129 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="Go XLSX"/>
+  <workbookPr showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" tabRatio="204" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="学生表导出测试" sheetId="1" r:id="rId1" state="visible"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames/>
+  <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小李</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>13800138000</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>name1@chairis.cn</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>13800138001</t>
+  </si>
+  <si>
+    <t>name2@chairis.cn</t>
+  </si>
+  <si>
+    <t>name3</t>
+  </si>
+  <si>
+    <t>13800138002</t>
+  </si>
+  <si>
+    <t>name3@chairis.cn</t>
+  </si>
+  <si>
+    <t>name4</t>
+  </si>
+  <si>
+    <t>13800138003</t>
+  </si>
+  <si>
+    <t>name4@chairis.cn</t>
+  </si>
+  <si>
+    <t>name5</t>
+  </si>
+  <si>
+    <t>13800138004</t>
+  </si>
+  <si>
+    <t>name5@chairis.cn</t>
+  </si>
+  <si>
+    <t>name6</t>
+  </si>
+  <si>
+    <t>13800138005</t>
+  </si>
+  <si>
+    <t>name6@chairis.cn</t>
+  </si>
+  <si>
+    <t>name7</t>
+  </si>
+  <si>
+    <t>13800138006</t>
+  </si>
+  <si>
+    <t>name7@chairis.cn</t>
+  </si>
+  <si>
+    <t>name8</t>
+  </si>
+  <si>
+    <t>13800138007</t>
+  </si>
+  <si>
+    <t>name8@chairis.cn</t>
+  </si>
+  <si>
+    <t>name9</t>
+  </si>
+  <si>
+    <t>13800138008</t>
+  </si>
+  <si>
+    <t>name9@chairis.cn</t>
+  </si>
+  <si>
+    <t>name10</t>
+  </si>
+  <si>
+    <t>13800138009</t>
+  </si>
+  <si>
+    <t>name10@chairis.cn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,39 +131,30 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -160,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Arial"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,20 +298,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -362,58 +429,247 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" ht="28.3464567" customHeight="true">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="28.3464567" customHeight="true">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="28.3464567" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="28.3464567" customHeight="true">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="28.3464567" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="28.3464567" customHeight="true">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="28.3464567" customHeight="true">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="28.3464567" customHeight="true">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="28.3464567" customHeight="true">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="28.3464567" customHeight="true">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>